--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 2.1.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7B775-AF3F-4A58-A6F4-943EA8C01659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6841EAD5-33AD-498C-BDB1-611B533D1C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -915,28 +915,10 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +931,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -5020,7 +5020,7 @@
       <c r="Y9" s="24"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="120" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="35"/>
@@ -5085,7 +5085,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="120" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="35"/>
@@ -5333,7 +5333,7 @@
       <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="119" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="100"/>
@@ -5439,7 +5439,7 @@
   <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10565,16 +10565,16 @@
     <col min="2" max="3" width="15.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="127" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="121" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="22" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="124"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="88" t="s">
@@ -10587,7 +10587,7 @@
       <c r="E4" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="F4" s="122" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="118">
         <f ca="1">SUM(F5:F13)</f>
         <v>384.9</v>
       </c>
@@ -10706,7 +10706,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="122" t="str">
+      <c r="E13" s="116" t="str">
         <v>G. Gerais</v>
       </c>
       <c r="F13" s="63">
@@ -10736,8 +10736,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="123"/>
-      <c r="F17" s="129"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="123"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="46"/>
@@ -11036,7 +11036,7 @@
       <c r="AK5" s="69"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="125" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="72"/>
@@ -11125,7 +11125,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="72"/>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -11235,7 +11235,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -11334,7 +11334,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="72"/>
       <c r="C9" s="4" t="s">
         <v>39</v>
@@ -11433,7 +11433,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="72"/>
       <c r="C10" s="4" t="s">
         <v>37</v>
@@ -11532,7 +11532,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="72"/>
       <c r="C11" s="4" t="s">
         <v>36</v>
@@ -11631,7 +11631,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="72"/>
       <c r="C12" s="4" t="s">
         <v>41</v>
@@ -11730,7 +11730,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="72"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -11829,7 +11829,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="72"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -12066,77 +12066,77 @@
         <v>3</v>
       </c>
       <c r="B17" s="74"/>
-      <c r="C17" s="117">
+      <c r="C17" s="126">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="117"/>
+      <c r="D17" s="126"/>
       <c r="E17" s="75"/>
-      <c r="F17" s="118">
+      <c r="F17" s="127">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="118"/>
+      <c r="G17" s="127"/>
       <c r="H17" s="75"/>
-      <c r="I17" s="117">
+      <c r="I17" s="126">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="117"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="75"/>
-      <c r="L17" s="118">
+      <c r="L17" s="127">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="118"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="75"/>
-      <c r="O17" s="117">
+      <c r="O17" s="126">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="117"/>
+      <c r="P17" s="126"/>
       <c r="Q17" s="75"/>
-      <c r="R17" s="118">
+      <c r="R17" s="127">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="118"/>
+      <c r="S17" s="127"/>
       <c r="T17" s="75"/>
-      <c r="U17" s="117">
+      <c r="U17" s="126">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="117"/>
+      <c r="V17" s="126"/>
       <c r="W17" s="75"/>
-      <c r="X17" s="118">
+      <c r="X17" s="127">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="118"/>
+      <c r="Y17" s="127"/>
       <c r="Z17" s="75"/>
-      <c r="AA17" s="117">
+      <c r="AA17" s="126">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="117"/>
+      <c r="AB17" s="126"/>
       <c r="AC17" s="75"/>
-      <c r="AD17" s="118">
+      <c r="AD17" s="127">
         <f>SUM(AE7:AE15)</f>
         <v>384.9</v>
       </c>
-      <c r="AE17" s="118"/>
+      <c r="AE17" s="127"/>
       <c r="AF17" s="75"/>
-      <c r="AG17" s="117">
+      <c r="AG17" s="126">
         <f>SUM(AH7:AH15)</f>
         <v>109.9</v>
       </c>
-      <c r="AH17" s="117"/>
+      <c r="AH17" s="126"/>
       <c r="AI17" s="75"/>
-      <c r="AJ17" s="118">
+      <c r="AJ17" s="127">
         <f>SUM(AK7:AK15)</f>
         <v>109.9</v>
       </c>
-      <c r="AK17" s="118"/>
+      <c r="AK17" s="127"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -12151,11 +12151,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -12164,6 +12159,11 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -12708,15 +12708,15 @@
     </row>
     <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="121"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="121"/>
+      <c r="G2" s="129"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
